--- a/biology/Botanique/Rosa_woodsii/Rosa_woodsii.xlsx
+++ b/biology/Botanique/Rosa_woodsii/Rosa_woodsii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa woodsii, le Rosier de Woods, est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Cinnamomeae, originaire de l'Ouest de l'Amérique du Nord depuis l'Alaska et la Colombie-Britannique au nord jusqu'au Nord du Mexique vers le sud.
 L'espèce est dédiée à Joseph Woods (1776-1864), botaniste anglais qui étudia les rosiers et publia notamment Synopsis of the British Species of Rosa en 1818.
@@ -516,7 +528,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rosa fendleri Crép.
 Rosa californica Watson.
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau sarmenteux pouvant atteindre deux mètres de long et formant des fourrés denses. Les tiges à l'écorce sillonnée rouge-brun sont munies de nombreux aiguillons.
 Les feuilles caduques, alternes, sont imparipennées et comprennent de 5 à 7, parfois jusqu'à 11 folioles elliptiques de 1 à 1,5 cm de long.
@@ -582,9 +598,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa woodsii var. fendleri est cultivé ainsi que Rosa macounii qui pour certains est une variété de Rosa woodsii à fruits aplatis, pour d'autres une espèce. Rosa macounii a été introduite en culture dès 1826[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa woodsii var. fendleri est cultivé ainsi que Rosa macounii qui pour certains est une variété de Rosa woodsii à fruits aplatis, pour d'autres une espèce. Rosa macounii a été introduite en culture dès 1826
 </t>
         </is>
       </c>
